--- a/ЭЛЕКТРОНИКА/labs/lab3/Report_Electro3.xlsx
+++ b/ЭЛЕКТРОНИКА/labs/lab3/Report_Electro3.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Лист11" sheetId="11" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -144,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -154,7 +153,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -821,11 +819,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="224848512"/>
-        <c:axId val="267922048"/>
+        <c:axId val="267359744"/>
+        <c:axId val="267361664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="224848512"/>
+        <c:axId val="267359744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -878,13 +876,13 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="267922048"/>
+        <c:crossAx val="267361664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="267922048"/>
+        <c:axId val="267361664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -937,7 +935,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="224848512"/>
+        <c:crossAx val="267359744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3"/>
@@ -1006,7 +1004,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1584,11 +1581,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="224355072"/>
-        <c:axId val="224356992"/>
+        <c:axId val="267697536"/>
+        <c:axId val="267703808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="224355072"/>
+        <c:axId val="267697536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1642,13 +1639,13 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="224356992"/>
+        <c:crossAx val="267703808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="224356992"/>
+        <c:axId val="267703808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1701,7 +1698,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="224355072"/>
+        <c:crossAx val="267697536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3"/>
@@ -1709,7 +1706,447 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.6800976087394544E-2"/>
+          <c:y val="0.10984434348860907"/>
+          <c:w val="0.73611371210540899"/>
+          <c:h val="0.80443707542284615"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>R4=20кОМ</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист11!$C$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист11!$C$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.6042248342321201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6042248342321201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6042248342321201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1441993929573675</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>R4=50кОМ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист11!$C$9:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист11!$C$12:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>14.185399219516615</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.185399219516615</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.02556027996288</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1672498419049928</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>R4=100кОМ</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист11!$C$15:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист11!$C$18:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>19.275756546911104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.275756546911104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.650178254124725</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0205999132796242</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>R4=150кОМ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист11!$C$21:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист11!$C$24:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>22.144199392957368</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.144199392957368</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.616271845615827</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0205999132796242</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>R4=200кОМ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="lgDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист11!$C$27:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист11!$C$30:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>24.910253356283</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.710568938150978</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.061799739838872</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0205999132796242</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="74074752"/>
+        <c:axId val="74117888"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="74074752"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="200000"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>f,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>Гц</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.78611593746636188"/>
+              <c:y val="0.88980486761356314"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="74117888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="74117888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>K(f),</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> дБ</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.2641187776810375E-2"/>
+              <c:y val="3.4388627758017092E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="74074752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80083462041857278"/>
+          <c:y val="2.0531133223497967E-2"/>
+          <c:w val="0.18206222618752024"/>
+          <c:h val="0.58484016720919807"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1777,6 +2214,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>635679</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19559</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>590941</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>25056</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2081,15 +2553,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S25"/>
+  <dimension ref="B2:S26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="11"/>
+    </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -2206,73 +2680,146 @@
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <f>C4/C3</f>
         <v>-1.5887500000000001</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <f t="shared" ref="D5:S5" si="0">D4/D3</f>
         <v>-1.8171428571428572</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <f t="shared" si="0"/>
         <v>-1.9833333333333334</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="11">
         <f t="shared" si="0"/>
         <v>-2.0150000000000001</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="11">
         <f t="shared" si="0"/>
         <v>-2.0099999999999998</v>
       </c>
-      <c r="K5" s="12" t="e">
+      <c r="K5" s="11" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="11">
         <f t="shared" si="0"/>
         <v>-2.04</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="11">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="11">
         <f t="shared" si="0"/>
         <v>-2.0066666666666664</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="11">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="11">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="11">
         <f t="shared" si="0"/>
         <v>-1.9833333333333334</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="11">
         <f t="shared" si="0"/>
         <v>-1.7757142857142856</v>
       </c>
-      <c r="S5" s="13">
+      <c r="S5" s="12">
         <f t="shared" si="0"/>
         <v>-1.5525</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <f>-$B6/C5</f>
+        <v>12.588512981904012</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:S6" si="1">-$B6/D5</f>
+        <v>11.0062893081761</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>10.084033613445378</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>9.9255583126550864</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>9.9502487562189064</v>
+      </c>
+      <c r="K6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>9.8039215686274517</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>9.966777408637876</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>10.084033613445378</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="1"/>
+        <v>11.263073209975866</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="1"/>
+        <v>12.882447665056361</v>
       </c>
     </row>
     <row r="7" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -2392,73 +2939,146 @@
       <c r="B10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <f>C9/C8</f>
         <v>-1.5925</v>
       </c>
-      <c r="D10" s="12">
-        <f t="shared" ref="D10:S10" si="1">D9/D8</f>
+      <c r="D10" s="11">
+        <f t="shared" ref="D10:S10" si="2">D9/D8</f>
         <v>-1.82</v>
       </c>
-      <c r="E10" s="12">
-        <f t="shared" si="1"/>
+      <c r="E10" s="11">
+        <f t="shared" si="2"/>
         <v>-2.1233333333333335</v>
       </c>
-      <c r="F10" s="12">
-        <f t="shared" si="1"/>
+      <c r="F10" s="11">
+        <f t="shared" si="2"/>
         <v>-2.5499999999999998</v>
       </c>
-      <c r="G10" s="12">
-        <f t="shared" si="1"/>
+      <c r="G10" s="11">
+        <f t="shared" si="2"/>
         <v>-3.1875</v>
       </c>
-      <c r="H10" s="12">
-        <f t="shared" si="1"/>
+      <c r="H10" s="11">
+        <f t="shared" si="2"/>
         <v>-4.25</v>
       </c>
-      <c r="I10" s="12">
-        <f t="shared" si="1"/>
+      <c r="I10" s="11">
+        <f t="shared" si="2"/>
         <v>-4.97</v>
       </c>
-      <c r="J10" s="12">
-        <f t="shared" si="1"/>
+      <c r="J10" s="11">
+        <f t="shared" si="2"/>
         <v>-5.08</v>
       </c>
-      <c r="K10" s="12" t="e">
-        <f t="shared" si="1"/>
+      <c r="K10" s="11" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="12">
-        <f t="shared" si="1"/>
+      <c r="L10" s="11">
+        <f t="shared" si="2"/>
         <v>-5.09</v>
       </c>
-      <c r="M10" s="12">
-        <f t="shared" si="1"/>
+      <c r="M10" s="11">
+        <f t="shared" si="2"/>
         <v>-6.25</v>
       </c>
-      <c r="N10" s="12">
-        <f t="shared" si="1"/>
+      <c r="N10" s="11">
+        <f t="shared" si="2"/>
         <v>-4.166666666666667</v>
       </c>
-      <c r="O10" s="12">
-        <f t="shared" si="1"/>
+      <c r="O10" s="11">
+        <f t="shared" si="2"/>
         <v>-3.125</v>
       </c>
-      <c r="P10" s="12">
-        <f t="shared" si="1"/>
+      <c r="P10" s="11">
+        <f t="shared" si="2"/>
         <v>-2.5</v>
       </c>
-      <c r="Q10" s="12">
-        <f t="shared" si="1"/>
+      <c r="Q10" s="11">
+        <f t="shared" si="2"/>
         <v>-2.0833333333333335</v>
       </c>
-      <c r="R10" s="12">
-        <f t="shared" si="1"/>
+      <c r="R10" s="11">
+        <f t="shared" si="2"/>
         <v>-1.7857142857142858</v>
       </c>
-      <c r="S10" s="13">
-        <f t="shared" si="1"/>
+      <c r="S10" s="12">
+        <f t="shared" si="2"/>
         <v>-1.5625</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <f>-$B11/C10</f>
+        <v>31.397174254317111</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:S11" si="3">-$B11/D10</f>
+        <v>27.472527472527471</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>23.547880690737831</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>19.607843137254903</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>15.686274509803921</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>11.764705882352942</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>10.06036217303823</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>9.8425196850393704</v>
+      </c>
+      <c r="K11" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>9.8231827111984291</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="3"/>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -2554,57 +3174,114 @@
       <c r="B15" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <f>C14/C13</f>
         <v>-4.253333333333333</v>
       </c>
-      <c r="D15" s="12">
-        <f t="shared" ref="D15:O15" si="2">D14/D13</f>
+      <c r="D15" s="11">
+        <f t="shared" ref="D15:O15" si="4">D14/D13</f>
         <v>-5.1040000000000001</v>
       </c>
-      <c r="E15" s="12">
-        <f t="shared" si="2"/>
+      <c r="E15" s="11">
+        <f t="shared" si="4"/>
         <v>-6.38</v>
       </c>
-      <c r="F15" s="12">
-        <f t="shared" si="2"/>
+      <c r="F15" s="11">
+        <f t="shared" si="4"/>
         <v>-8.5066666666666659</v>
       </c>
-      <c r="G15" s="12">
-        <f t="shared" si="2"/>
+      <c r="G15" s="11">
+        <f t="shared" si="4"/>
         <v>-9.9</v>
       </c>
-      <c r="H15" s="12">
-        <f t="shared" si="2"/>
+      <c r="H15" s="11">
+        <f t="shared" si="4"/>
         <v>-9.9600000000000009</v>
       </c>
-      <c r="I15" s="12" t="e">
-        <f t="shared" si="2"/>
+      <c r="I15" s="11" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J15" s="12">
-        <f t="shared" si="2"/>
+      <c r="J15" s="11">
+        <f t="shared" si="4"/>
         <v>-10.46</v>
       </c>
-      <c r="K15" s="12">
-        <f t="shared" si="2"/>
+      <c r="K15" s="11">
+        <f t="shared" si="4"/>
         <v>-9.9</v>
       </c>
-      <c r="L15" s="12">
-        <f t="shared" si="2"/>
+      <c r="L15" s="11">
+        <f t="shared" si="4"/>
         <v>-8.3733333333333331</v>
       </c>
-      <c r="M15" s="12">
-        <f t="shared" si="2"/>
+      <c r="M15" s="11">
+        <f t="shared" si="4"/>
         <v>-6.28</v>
       </c>
-      <c r="N15" s="12">
-        <f t="shared" si="2"/>
+      <c r="N15" s="11">
+        <f t="shared" si="4"/>
         <v>-5.024</v>
       </c>
-      <c r="O15" s="13">
-        <f t="shared" si="2"/>
+      <c r="O15" s="12">
+        <f t="shared" si="4"/>
         <v>-4.1866666666666665</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>100</v>
+      </c>
+      <c r="C16">
+        <f>-$B16/C15</f>
+        <v>23.510971786833856</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:O16" si="5">-$B16/D15</f>
+        <v>19.592476489028211</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="5"/>
+        <v>15.673981191222571</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="5"/>
+        <v>11.755485893416928</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="5"/>
+        <v>10.1010101010101</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="5"/>
+        <v>10.04016064257028</v>
+      </c>
+      <c r="I16" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="5"/>
+        <v>9.5602294455066907</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="5"/>
+        <v>10.1010101010101</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="5"/>
+        <v>11.942675159235669</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="5"/>
+        <v>15.923566878980891</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="5"/>
+        <v>19.904458598726116</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="5"/>
+        <v>23.885350318471339</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -2688,49 +3365,98 @@
       <c r="B20" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <f>C19/C18</f>
         <v>-5.1040000000000001</v>
       </c>
-      <c r="D20" s="12">
-        <f t="shared" ref="D20:M20" si="3">D19/D18</f>
+      <c r="D20" s="11">
+        <f t="shared" ref="D20:M20" si="6">D19/D18</f>
         <v>-6.38</v>
       </c>
-      <c r="E20" s="12">
-        <f t="shared" si="3"/>
+      <c r="E20" s="11">
+        <f t="shared" si="6"/>
         <v>-8.5066666666666659</v>
       </c>
-      <c r="F20" s="12">
-        <f t="shared" si="3"/>
+      <c r="F20" s="11">
+        <f t="shared" si="6"/>
         <v>-12.76</v>
       </c>
-      <c r="G20" s="12">
-        <f t="shared" si="3"/>
+      <c r="G20" s="11">
+        <f t="shared" si="6"/>
         <v>-15.04</v>
       </c>
-      <c r="H20" s="12" t="e">
-        <f t="shared" si="3"/>
+      <c r="H20" s="11" t="e">
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="12">
-        <f t="shared" si="3"/>
+      <c r="I20" s="11">
+        <f t="shared" si="6"/>
         <v>-15.9</v>
       </c>
-      <c r="J20" s="12">
-        <f t="shared" si="3"/>
+      <c r="J20" s="11">
+        <f t="shared" si="6"/>
         <v>-12.56</v>
       </c>
-      <c r="K20" s="12">
-        <f t="shared" si="3"/>
+      <c r="K20" s="11">
+        <f t="shared" si="6"/>
         <v>-8.3733333333333331</v>
       </c>
-      <c r="L20" s="12">
-        <f t="shared" si="3"/>
+      <c r="L20" s="11">
+        <f t="shared" si="6"/>
         <v>-6.28</v>
       </c>
-      <c r="M20" s="13">
-        <f t="shared" si="3"/>
+      <c r="M20" s="12">
+        <f t="shared" si="6"/>
         <v>-5.024</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>150</v>
+      </c>
+      <c r="C21">
+        <f>-$B21/C20</f>
+        <v>29.388714733542319</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:M21" si="7">-$B21/D20</f>
+        <v>23.510971786833856</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="7"/>
+        <v>17.633228840125394</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="7"/>
+        <v>11.755485893416928</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="7"/>
+        <v>9.9734042553191493</v>
+      </c>
+      <c r="H21" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="7"/>
+        <v>9.433962264150944</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="7"/>
+        <v>11.942675159235668</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="7"/>
+        <v>17.914012738853504</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="7"/>
+        <v>23.885350318471335</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="7"/>
+        <v>29.85668789808917</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -2814,49 +3540,98 @@
       <c r="B25" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="11">
         <f>C24/C23</f>
         <v>-10.208</v>
       </c>
-      <c r="D25" s="12">
-        <f t="shared" ref="D25:M25" si="4">D24/D23</f>
+      <c r="D25" s="11">
+        <f t="shared" ref="D25:M25" si="8">D24/D23</f>
         <v>-12.77</v>
       </c>
-      <c r="E25" s="12">
-        <f t="shared" si="4"/>
+      <c r="E25" s="11">
+        <f t="shared" si="8"/>
         <v>-17.026666666666667</v>
       </c>
-      <c r="F25" s="12">
-        <f t="shared" si="4"/>
+      <c r="F25" s="11">
+        <f t="shared" si="8"/>
         <v>-20.260000000000002</v>
       </c>
-      <c r="G25" s="12">
-        <f t="shared" si="4"/>
+      <c r="G25" s="11">
+        <f t="shared" si="8"/>
         <v>-18.8</v>
       </c>
-      <c r="H25" s="12" t="e">
-        <f t="shared" si="4"/>
+      <c r="H25" s="11" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="12">
-        <f t="shared" si="4"/>
+      <c r="I25" s="11">
+        <f t="shared" si="8"/>
         <v>-21.12</v>
       </c>
-      <c r="J25" s="12">
-        <f t="shared" si="4"/>
+      <c r="J25" s="11">
+        <f t="shared" si="8"/>
         <v>-21.2</v>
       </c>
-      <c r="K25" s="12">
-        <f t="shared" si="4"/>
+      <c r="K25" s="11">
+        <f t="shared" si="8"/>
         <v>-16.746666666666666</v>
       </c>
-      <c r="L25" s="12">
-        <f t="shared" si="4"/>
+      <c r="L25" s="11">
+        <f t="shared" si="8"/>
         <v>-12.56</v>
       </c>
-      <c r="M25" s="13">
-        <f t="shared" si="4"/>
+      <c r="M25" s="12">
+        <f t="shared" si="8"/>
         <v>-10.048</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>200</v>
+      </c>
+      <c r="C26">
+        <f>-$B26/C25</f>
+        <v>19.592476489028211</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:M26" si="9">-$B26/D25</f>
+        <v>15.661707126076744</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="9"/>
+        <v>11.746280344557556</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="9"/>
+        <v>9.8716683119447186</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="9"/>
+        <v>10.638297872340425</v>
+      </c>
+      <c r="H26" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="9"/>
+        <v>9.4696969696969688</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="9"/>
+        <v>9.433962264150944</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="9"/>
+        <v>11.942675159235669</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="9"/>
+        <v>15.923566878980891</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="9"/>
+        <v>19.904458598726116</v>
       </c>
     </row>
   </sheetData>
@@ -2869,8 +3644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q25"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -2963,16 +3738,16 @@
       <c r="M4" s="5">
         <v>9</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="9">
         <v>11.96</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="9">
         <v>12.74</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="9">
         <v>12.73</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="10">
         <v>12.73</v>
       </c>
     </row>
@@ -2980,63 +3755,63 @@
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <f>C4/C3</f>
         <v>1.7871428571428571</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <f t="shared" ref="D5:Q5" si="0">D4/D3</f>
         <v>2.085</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <f t="shared" si="0"/>
         <v>2.5019999999999998</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <f t="shared" si="0"/>
         <v>3.02</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <f t="shared" si="0"/>
         <v>2.9966666666666666</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <f t="shared" si="0"/>
         <v>3.0049999999999999</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="11">
         <f t="shared" si="0"/>
         <v>3.04</v>
       </c>
-      <c r="J5" s="12" t="e">
+      <c r="J5" s="11" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="11">
         <f t="shared" si="0"/>
         <v>3.06</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="11">
         <f t="shared" si="0"/>
         <v>3.0150000000000001</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="11">
         <f t="shared" si="0"/>
         <v>2.99</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="11">
         <f t="shared" si="0"/>
         <v>2.548</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="11">
         <f t="shared" si="0"/>
         <v>2.1216666666666666</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="12">
         <f t="shared" si="0"/>
         <v>1.8185714285714287</v>
       </c>
@@ -3129,16 +3904,16 @@
       <c r="M9" s="5">
         <v>12.76</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="9">
         <v>12.75</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="9">
         <v>12.75</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="9">
         <v>12.75</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="10">
         <v>12.74</v>
       </c>
     </row>
@@ -3146,63 +3921,63 @@
       <c r="B10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <f>C9/C8</f>
         <v>1.7914285714285714</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <f t="shared" ref="D10:Q10" si="1">D9/D8</f>
         <v>2.09</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <f t="shared" si="1"/>
         <v>2.508</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <f t="shared" si="1"/>
         <v>3.1349999999999998</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <f t="shared" si="1"/>
         <v>4.18</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <f t="shared" si="1"/>
         <v>5.9749999999999996</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="11">
         <f t="shared" si="1"/>
         <v>6.06</v>
       </c>
-      <c r="J10" s="12" t="e">
+      <c r="J10" s="11" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="11">
         <f t="shared" si="1"/>
         <v>6.09</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="11">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="11">
         <f t="shared" si="1"/>
         <v>4.253333333333333</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="11">
         <f t="shared" si="1"/>
         <v>3.1875</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="11">
         <f t="shared" si="1"/>
         <v>2.5499999999999998</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="11">
         <f t="shared" si="1"/>
         <v>2.125</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="12">
         <f t="shared" si="1"/>
         <v>1.82</v>
       </c>
@@ -3289,10 +4064,10 @@
       <c r="M14" s="5">
         <v>12.76</v>
       </c>
-      <c r="N14" s="10">
+      <c r="N14" s="9">
         <v>12.76</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O14" s="10">
         <v>12.76</v>
       </c>
     </row>
@@ -3300,55 +4075,55 @@
       <c r="B15" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <f>C14/C13</f>
         <v>4.1866666666666665</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <f t="shared" ref="D15:N15" si="2">D14/D13</f>
         <v>5.024</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <f t="shared" si="2"/>
         <v>6.28</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="11">
         <f t="shared" si="2"/>
         <v>8.3800000000000008</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="11">
         <f t="shared" si="2"/>
         <v>11.1</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="11">
         <f t="shared" si="2"/>
         <v>11.22</v>
       </c>
-      <c r="I15" s="12" t="e">
+      <c r="I15" s="11" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="11">
         <f t="shared" si="2"/>
         <v>11.34</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="11">
         <f t="shared" si="2"/>
         <v>11.07</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="11">
         <f t="shared" si="2"/>
         <v>8.5066666666666659</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="11">
         <f t="shared" si="2"/>
         <v>6.38</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="11">
         <f t="shared" si="2"/>
         <v>5.1040000000000001</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="12">
         <f>O14/O13</f>
         <v>4.253333333333333</v>
       </c>
@@ -3426,7 +4201,7 @@
       <c r="L19" s="5">
         <v>12.77</v>
       </c>
-      <c r="M19" s="11">
+      <c r="M19" s="10">
         <v>12.77</v>
       </c>
     </row>
@@ -3434,47 +4209,47 @@
       <c r="B20" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <f>C19/C18</f>
         <v>5.0280000000000005</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <f t="shared" ref="D20:M20" si="3">D19/D18</f>
         <v>6.2850000000000001</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="11">
         <f t="shared" si="3"/>
         <v>8.3800000000000008</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="11">
         <f t="shared" si="3"/>
         <v>12.57</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="11">
         <f t="shared" si="3"/>
         <v>16.260000000000002</v>
       </c>
-      <c r="H20" s="12" t="e">
+      <c r="H20" s="11" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="11">
         <f t="shared" si="3"/>
         <v>16.32</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="11">
         <f t="shared" si="3"/>
         <v>12.77</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K20" s="11">
         <f t="shared" si="3"/>
         <v>8.5133333333333336</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="11">
         <f t="shared" si="3"/>
         <v>6.3849999999999998</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="12">
         <f t="shared" si="3"/>
         <v>5.1079999999999997</v>
       </c>
@@ -3552,7 +4327,7 @@
       <c r="L24" s="5">
         <v>12.76</v>
       </c>
-      <c r="M24" s="11">
+      <c r="M24" s="10">
         <v>12.76</v>
       </c>
     </row>
@@ -3560,47 +4335,47 @@
       <c r="B25" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="11">
         <f>C24/C23</f>
         <v>10.056000000000001</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="11">
         <f t="shared" ref="D25:M25" si="4">D24/D23</f>
         <v>12.57</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="11">
         <f t="shared" si="4"/>
         <v>16.760000000000002</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="11">
         <f t="shared" si="4"/>
         <v>21.08</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="11">
         <f t="shared" si="4"/>
         <v>21.88</v>
       </c>
-      <c r="H25" s="12" t="e">
+      <c r="H25" s="11" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="11">
         <f t="shared" si="4"/>
         <v>22.4</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="11">
         <f t="shared" si="4"/>
         <v>21.24</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25" s="11">
         <f t="shared" si="4"/>
         <v>17.026666666666667</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L25" s="11">
         <f t="shared" si="4"/>
         <v>12.76</v>
       </c>
-      <c r="M25" s="13">
+      <c r="M25" s="12">
         <f t="shared" si="4"/>
         <v>10.208</v>
       </c>
@@ -3613,13 +4388,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I29"/>
+  <dimension ref="B1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H1" t="s">
@@ -3668,10 +4446,40 @@
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
+      <c r="C5" s="8">
+        <f>C4/$I$1</f>
+        <v>2.4</v>
+      </c>
+      <c r="D5" s="8">
+        <f t="shared" ref="D5:F5" si="0">D4/$I$1</f>
+        <v>2.4</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" si="0"/>
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <f>20*LOG10(C5)</f>
+        <v>7.6042248342321201</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:F6" si="1">20*LOG10(D5)</f>
+        <v>7.6042248342321201</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>7.6042248342321201</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>2.1441993929573675</v>
+      </c>
     </row>
     <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
@@ -3712,10 +4520,40 @@
       <c r="B11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
+      <c r="C11" s="8">
+        <f>C10/$I$1</f>
+        <v>5.12</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" ref="D11:F11" si="2">D10/$I$1</f>
+        <v>5.12</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="2"/>
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="2"/>
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <f>20*LOG10(C11)</f>
+        <v>14.185399219516615</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12" si="3">20*LOG10(D11)</f>
+        <v>14.185399219516615</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12" si="4">20*LOG10(E11)</f>
+        <v>13.02556027996288</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12" si="5">20*LOG10(F11)</f>
+        <v>3.1672498419049928</v>
+      </c>
     </row>
     <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
@@ -3756,10 +4594,40 @@
       <c r="B17" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
+      <c r="C17" s="8">
+        <f>C16/$I$1</f>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D17" s="8">
+        <f t="shared" ref="D17:F17" si="6">D16/$I$1</f>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E17" s="8">
+        <f t="shared" si="6"/>
+        <v>6.8</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <f>20*LOG10(C17)</f>
+        <v>19.275756546911104</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18" si="7">20*LOG10(D17)</f>
+        <v>19.275756546911104</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ref="E18" si="8">20*LOG10(E17)</f>
+        <v>16.650178254124725</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ref="F18" si="9">20*LOG10(F17)</f>
+        <v>6.0205999132796242</v>
+      </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
@@ -3800,10 +4668,40 @@
       <c r="B23" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
+      <c r="C23" s="8">
+        <f>C22/$I$1</f>
+        <v>12.8</v>
+      </c>
+      <c r="D23" s="8">
+        <f t="shared" ref="D23:F23" si="10">D22/$I$1</f>
+        <v>12.8</v>
+      </c>
+      <c r="E23" s="8">
+        <f t="shared" si="10"/>
+        <v>7.6</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <f>20*LOG10(C23)</f>
+        <v>22.144199392957368</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24" si="11">20*LOG10(D23)</f>
+        <v>22.144199392957368</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ref="E24" si="12">20*LOG10(E23)</f>
+        <v>17.616271845615827</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ref="F24" si="13">20*LOG10(F23)</f>
+        <v>6.0205999132796242</v>
+      </c>
     </row>
     <row r="26" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
@@ -3844,12 +4742,43 @@
       <c r="B29" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="9"/>
+      <c r="C29" s="8">
+        <f>C28/$I$1</f>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="D29" s="8">
+        <f t="shared" ref="D29:F29" si="14">D28/$I$1</f>
+        <v>17.2</v>
+      </c>
+      <c r="E29" s="8">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="F29" s="8">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <f>20*LOG10(C29)</f>
+        <v>24.910253356283</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ref="D30" si="15">20*LOG10(D29)</f>
+        <v>24.710568938150978</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ref="E30" si="16">20*LOG10(E29)</f>
+        <v>18.061799739838872</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ref="F30" si="17">20*LOG10(F29)</f>
+        <v>6.0205999132796242</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ЭЛЕКТРОНИКА/labs/lab3/Report_Electro3.xlsx
+++ b/ЭЛЕКТРОНИКА/labs/lab3/Report_Electro3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="5">
   <si>
     <t>Uвх</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>f. Гц</t>
+  </si>
+  <si>
+    <t>20lg(K)</t>
   </si>
 </sst>
 </file>
@@ -143,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -157,6 +160,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -819,11 +823,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="267359744"/>
-        <c:axId val="267361664"/>
+        <c:axId val="191870080"/>
+        <c:axId val="191872000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="267359744"/>
+        <c:axId val="191870080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -876,13 +880,13 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="267361664"/>
+        <c:crossAx val="191872000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="267361664"/>
+        <c:axId val="191872000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -935,7 +939,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="267359744"/>
+        <c:crossAx val="191870080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3"/>
@@ -1581,11 +1585,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="267697536"/>
-        <c:axId val="267703808"/>
+        <c:axId val="266390528"/>
+        <c:axId val="266392704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="267697536"/>
+        <c:axId val="266390528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1639,13 +1643,13 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="267703808"/>
+        <c:crossAx val="266392704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="267703808"/>
+        <c:axId val="266392704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1698,7 +1702,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="267697536"/>
+        <c:crossAx val="266390528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3"/>
@@ -1756,12 +1760,29 @@
           <c:tx>
             <c:v>R4=20кОМ</c:v>
           </c:tx>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="3"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="31750" cmpd="dbl">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:forward val="50000"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист11!$C$3:$F$3</c:f>
+              <c:f>Лист11!$C$3:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -1773,16 +1794,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0">
+                  <c:v>177827.94100389251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист11!$C$6:$F$6</c:f>
+              <c:f>Лист11!$C$6:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>7.6042248342321201</c:v>
                 </c:pt>
@@ -1794,6 +1818,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.1441993929573675</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1811,6 +1838,23 @@
               <a:prstDash val="dash"/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="3"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="31750" cmpd="dbl">
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:forward val="50000"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Лист11!$C$9:$G$9</c:f>
@@ -1828,6 +1872,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0">
+                  <c:v>181970.08586099857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1850,6 +1897,9 @@
                 <c:pt idx="3">
                   <c:v>3.1672498419049928</c:v>
                 </c:pt>
+                <c:pt idx="4" formatCode="0">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1861,12 +1911,29 @@
           <c:tx>
             <c:v>R4=100кОМ</c:v>
           </c:tx>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="3"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="38100" cmpd="dbl">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:forward val="100000"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист11!$C$15:$F$15</c:f>
+              <c:f>Лист11!$C$15:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -1878,16 +1945,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0">
+                  <c:v>186208.71366628664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист11!$C$18:$F$18</c:f>
+              <c:f>Лист11!$C$18:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>19.275756546911104</c:v>
                 </c:pt>
@@ -1899,6 +1969,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6.0205999132796242</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1918,14 +1991,27 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="square"/>
-            <c:size val="7"/>
+            <c:size val="3"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cmpd="dbl">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:forward val="20000"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист11!$C$21:$F$21</c:f>
+              <c:f>Лист11!$C$21:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -1937,16 +2023,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0">
+                  <c:v>190546.07179632492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист11!$C$24:$F$24</c:f>
+              <c:f>Лист11!$C$24:$G$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>22.144199392957368</c:v>
                 </c:pt>
@@ -1958,6 +2047,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6.0205999132796242</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1977,14 +2069,27 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="square"/>
-            <c:size val="7"/>
+            <c:size val="2"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="31750" cmpd="dbl">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:forward val="50000"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист11!$C$27:$F$27</c:f>
+              <c:f>Лист11!$C$27:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -1996,16 +2101,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0">
+                  <c:v>194984.45997580473</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист11!$C$30:$F$30</c:f>
+              <c:f>Лист11!$C$30:$G$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>24.910253356283</c:v>
                 </c:pt>
@@ -2017,6 +2125,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6.0205999132796242</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2031,19 +2142,20 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="74074752"/>
-        <c:axId val="74117888"/>
+        <c:axId val="266560640"/>
+        <c:axId val="266562560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74074752"/>
+        <c:axId val="266560640"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="200000"/>
+          <c:max val="300000"/>
           <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:minorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2083,18 +2195,19 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74117888"/>
+        <c:crossAx val="266562560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74117888"/>
+        <c:axId val="266562560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="-5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:minorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2105,8 +2218,12 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>20</a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>K(f),</a:t>
+                  <a:t>lg(K),</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="ru-RU" baseline="0"/>
@@ -2130,7 +2247,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74074752"/>
+        <c:crossAx val="266560640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2144,9 +2261,139 @@
           <c:x val="0.80083462041857278"/>
           <c:y val="2.0531133223497967E-2"/>
           <c:w val="0.18206222618752024"/>
-          <c:h val="0.58484016720919807"/>
+          <c:h val="0.91007805965988287"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист11!$K$24:$N$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист11!$K$26:$N$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>17.206760131419873</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.206760131419873</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.206760131419873</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0205999132796242</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="222650752"/>
+        <c:axId val="222648960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="222650752"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="200000"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="222648960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="222648960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="222650752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2258,6 +2505,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>62345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>581891</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>78970</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2555,8 +2832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U44" sqref="U44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -2681,16 +2958,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="11">
-        <f>C4/C3</f>
-        <v>-1.5887500000000001</v>
+        <f>(D4-C4)/(D3-C3)</f>
+        <v>9.9999999999997868E-3</v>
       </c>
       <c r="D5" s="11">
-        <f t="shared" ref="D5:S5" si="0">D4/D3</f>
-        <v>-1.8171428571428572</v>
+        <f t="shared" ref="D5:R5" si="0">(E4-D4)/(E3-D3)</f>
+        <v>-0.82000000000000028</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="0"/>
-        <v>-1.9833333333333334</v>
+        <v>-1.9000000000000004</v>
       </c>
       <c r="F5" s="11">
         <f t="shared" si="0"/>
@@ -2702,31 +2979,31 @@
       </c>
       <c r="H5" s="11">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-1.9699999999999998</v>
       </c>
       <c r="I5" s="11">
         <f t="shared" si="0"/>
-        <v>-2.0150000000000001</v>
+        <v>-2.0200000000000005</v>
       </c>
       <c r="J5" s="11">
         <f t="shared" si="0"/>
-        <v>-2.0099999999999998</v>
-      </c>
-      <c r="K5" s="11" t="e">
+        <v>-1.9599999999999997</v>
+      </c>
+      <c r="K5" s="11">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>-2.09</v>
       </c>
       <c r="L5" s="11">
         <f t="shared" si="0"/>
-        <v>-2.04</v>
+        <v>-1.96</v>
       </c>
       <c r="M5" s="11">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-2.0199999999999996</v>
       </c>
       <c r="N5" s="11">
         <f t="shared" si="0"/>
-        <v>-2.0066666666666664</v>
+        <v>-1.9800000000000004</v>
       </c>
       <c r="O5" s="11">
         <f t="shared" si="0"/>
@@ -2734,19 +3011,19 @@
       </c>
       <c r="P5" s="11">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-1.9000000000000004</v>
       </c>
       <c r="Q5" s="11">
         <f t="shared" si="0"/>
-        <v>-1.9833333333333334</v>
+        <v>-0.52999999999999936</v>
       </c>
       <c r="R5" s="11">
         <f t="shared" si="0"/>
-        <v>-1.7757142857142856</v>
+        <v>9.9999999999997868E-3</v>
       </c>
       <c r="S5" s="12">
-        <f t="shared" si="0"/>
-        <v>-1.5525</v>
+        <f>(S4-R4)/(S3-R3)</f>
+        <v>9.9999999999997868E-3</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
@@ -2755,15 +3032,15 @@
       </c>
       <c r="C6">
         <f>-$B6/C5</f>
-        <v>12.588512981904012</v>
+        <v>-2000.0000000000427</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:S6" si="1">-$B6/D5</f>
-        <v>11.0062893081761</v>
+        <v>24.390243902439018</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>10.084033613445378</v>
+        <v>10.526315789473681</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
@@ -2775,31 +3052,31 @@
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>10.152284263959393</v>
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
-        <v>9.9255583126550864</v>
+        <v>9.9009900990098991</v>
       </c>
       <c r="J6">
         <f t="shared" si="1"/>
-        <v>9.9502487562189064</v>
-      </c>
-      <c r="K6" t="e">
+        <v>10.204081632653063</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>9.5693779904306222</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>9.8039215686274517</v>
+        <v>10.204081632653061</v>
       </c>
       <c r="M6">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9.9009900990099027</v>
       </c>
       <c r="N6">
         <f t="shared" si="1"/>
-        <v>9.966777408637876</v>
+        <v>10.101010101010099</v>
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
@@ -2807,19 +3084,19 @@
       </c>
       <c r="P6">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>10.526315789473681</v>
       </c>
       <c r="Q6">
         <f t="shared" si="1"/>
-        <v>10.084033613445378</v>
+        <v>37.735849056603818</v>
       </c>
       <c r="R6">
         <f t="shared" si="1"/>
-        <v>11.263073209975866</v>
+        <v>-2000.0000000000427</v>
       </c>
       <c r="S6">
         <f t="shared" si="1"/>
-        <v>12.882447665056361</v>
+        <v>-2000.0000000000427</v>
       </c>
     </row>
     <row r="7" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -2940,145 +3217,145 @@
         <v>2</v>
       </c>
       <c r="C10" s="11">
-        <f>C9/C8</f>
-        <v>-1.5925</v>
+        <f>(D9-C9)/(D8-C8)</f>
+        <v>0</v>
       </c>
       <c r="D10" s="11">
-        <f t="shared" ref="D10:S10" si="2">D9/D8</f>
-        <v>-1.82</v>
+        <f t="shared" ref="D10:R10" si="2">(E9-D9)/(E8-D8)</f>
+        <v>0</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="2"/>
-        <v>-2.1233333333333335</v>
+        <v>9.9999999999997868E-3</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" si="2"/>
-        <v>-2.5499999999999998</v>
+        <v>0</v>
       </c>
       <c r="G10" s="11">
         <f t="shared" si="2"/>
-        <v>-3.1875</v>
+        <v>0</v>
       </c>
       <c r="H10" s="11">
         <f t="shared" si="2"/>
-        <v>-4.25</v>
+        <v>-2.8100000000000005</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" si="2"/>
-        <v>-4.97</v>
+        <v>-4.8599999999999994</v>
       </c>
       <c r="J10" s="11">
         <f t="shared" si="2"/>
         <v>-5.08</v>
       </c>
-      <c r="K10" s="11" t="e">
+      <c r="K10" s="11">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>-5.09</v>
       </c>
       <c r="L10" s="11">
         <f t="shared" si="2"/>
-        <v>-5.09</v>
+        <v>-7.41</v>
       </c>
       <c r="M10" s="11">
         <f t="shared" si="2"/>
-        <v>-6.25</v>
+        <v>0</v>
       </c>
       <c r="N10" s="11">
         <f t="shared" si="2"/>
-        <v>-4.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="O10" s="11">
         <f t="shared" si="2"/>
-        <v>-3.125</v>
+        <v>0</v>
       </c>
       <c r="P10" s="11">
         <f t="shared" si="2"/>
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="11">
         <f t="shared" si="2"/>
-        <v>-2.0833333333333335</v>
+        <v>0</v>
       </c>
       <c r="R10" s="11">
         <f t="shared" si="2"/>
-        <v>-1.7857142857142858</v>
+        <v>0</v>
       </c>
       <c r="S10" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.5625</v>
+        <f>(S9-R9)/(S8-R8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>50</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="e">
         <f>-$B11/C10</f>
-        <v>31.397174254317111</v>
-      </c>
-      <c r="D11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D11" t="e">
         <f t="shared" ref="D11:S11" si="3">-$B11/D10</f>
-        <v>27.472527472527471</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E11">
         <f t="shared" si="3"/>
-        <v>23.547880690737831</v>
-      </c>
-      <c r="F11">
+        <v>-5000.0000000001064</v>
+      </c>
+      <c r="F11" t="e">
         <f t="shared" si="3"/>
-        <v>19.607843137254903</v>
-      </c>
-      <c r="G11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G11" t="e">
         <f t="shared" si="3"/>
-        <v>15.686274509803921</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>11.764705882352942</v>
+        <v>17.793594306049819</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>10.06036217303823</v>
+        <v>10.2880658436214</v>
       </c>
       <c r="J11">
         <f t="shared" si="3"/>
         <v>9.8425196850393704</v>
       </c>
-      <c r="K11" t="e">
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>9.8231827111984291</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>6.7476383265856947</v>
+      </c>
+      <c r="M11" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11">
+      <c r="N11" t="e">
         <f t="shared" si="3"/>
-        <v>9.8231827111984291</v>
-      </c>
-      <c r="M11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O11" t="e">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="N11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P11" t="e">
         <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="O11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q11" t="e">
         <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="P11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R11" t="e">
         <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="Q11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S11" t="e">
         <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="3"/>
-        <v>32</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -3175,113 +3452,113 @@
         <v>2</v>
       </c>
       <c r="C15" s="11">
-        <f>C14/C13</f>
-        <v>-4.253333333333333</v>
+        <f>(D14-C14)/(D13-C13)</f>
+        <v>0</v>
       </c>
       <c r="D15" s="11">
-        <f t="shared" ref="D15:O15" si="4">D14/D13</f>
-        <v>-5.1040000000000001</v>
+        <f t="shared" ref="D15:N15" si="4">(E14-D14)/(E13-D13)</f>
+        <v>0</v>
       </c>
       <c r="E15" s="11">
         <f t="shared" si="4"/>
-        <v>-6.38</v>
+        <v>0</v>
       </c>
       <c r="F15" s="11">
         <f t="shared" si="4"/>
-        <v>-8.5066666666666659</v>
+        <v>-5.7199999999999989</v>
       </c>
       <c r="G15" s="11">
         <f t="shared" si="4"/>
-        <v>-9.9</v>
+        <v>-9.84</v>
       </c>
       <c r="H15" s="11">
         <f t="shared" si="4"/>
-        <v>-9.9600000000000009</v>
-      </c>
-      <c r="I15" s="11" t="e">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="I15" s="11">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>-10.620000000000001</v>
       </c>
       <c r="J15" s="11">
         <f t="shared" si="4"/>
-        <v>-10.46</v>
+        <v>-9.34</v>
       </c>
       <c r="K15" s="11">
         <f t="shared" si="4"/>
-        <v>-9.9</v>
+        <v>-5.32</v>
       </c>
       <c r="L15" s="11">
         <f t="shared" si="4"/>
-        <v>-8.3733333333333331</v>
+        <v>0</v>
       </c>
       <c r="M15" s="11">
         <f t="shared" si="4"/>
-        <v>-6.28</v>
+        <v>0</v>
       </c>
       <c r="N15" s="11">
         <f t="shared" si="4"/>
-        <v>-5.024</v>
+        <v>0</v>
       </c>
       <c r="O15" s="12">
-        <f t="shared" si="4"/>
-        <v>-4.1866666666666665</v>
+        <f>(O14-N14)/(O13-N13)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>100</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="e">
         <f>-$B16/C15</f>
-        <v>23.510971786833856</v>
-      </c>
-      <c r="D16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D16" t="e">
         <f t="shared" ref="D16:O16" si="5">-$B16/D15</f>
-        <v>19.592476489028211</v>
-      </c>
-      <c r="E16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E16" t="e">
         <f t="shared" si="5"/>
-        <v>15.673981191222571</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F16">
         <f t="shared" si="5"/>
-        <v>11.755485893416928</v>
+        <v>17.482517482517487</v>
       </c>
       <c r="G16">
         <f t="shared" si="5"/>
-        <v>10.1010101010101</v>
+        <v>10.16260162601626</v>
       </c>
       <c r="H16">
         <f t="shared" si="5"/>
-        <v>10.04016064257028</v>
-      </c>
-      <c r="I16" t="e">
+        <v>10.204081632653061</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="5"/>
+        <v>9.4161958568738218</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="5"/>
+        <v>10.706638115631693</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="5"/>
+        <v>18.796992481203006</v>
+      </c>
+      <c r="L16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J16">
+      <c r="M16" t="e">
         <f t="shared" si="5"/>
-        <v>9.5602294455066907</v>
-      </c>
-      <c r="K16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N16" t="e">
         <f t="shared" si="5"/>
-        <v>10.1010101010101</v>
-      </c>
-      <c r="L16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O16" t="e">
         <f t="shared" si="5"/>
-        <v>11.942675159235669</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="5"/>
-        <v>15.923566878980891</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="5"/>
-        <v>19.904458598726116</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="5"/>
-        <v>23.885350318471339</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -3366,97 +3643,97 @@
         <v>2</v>
       </c>
       <c r="C20" s="11">
-        <f>C19/C18</f>
-        <v>-5.1040000000000001</v>
+        <f>(D19-C19)/(D18-C18)</f>
+        <v>0</v>
       </c>
       <c r="D20" s="11">
-        <f t="shared" ref="D20:M20" si="6">D19/D18</f>
-        <v>-6.38</v>
+        <f t="shared" ref="D20:L20" si="6">(E19-D19)/(E18-D18)</f>
+        <v>0</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="6"/>
-        <v>-8.5066666666666659</v>
+        <v>0</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="6"/>
-        <v>-12.76</v>
+        <v>-10.48</v>
       </c>
       <c r="G20" s="11">
         <f t="shared" si="6"/>
-        <v>-15.04</v>
-      </c>
-      <c r="H20" s="11" t="e">
+        <v>-14.739999999999998</v>
+      </c>
+      <c r="H20" s="11">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>-16.2</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" si="6"/>
-        <v>-15.9</v>
+        <v>-9.2200000000000006</v>
       </c>
       <c r="J20" s="11">
         <f t="shared" si="6"/>
-        <v>-12.56</v>
+        <v>0</v>
       </c>
       <c r="K20" s="11">
         <f t="shared" si="6"/>
-        <v>-8.3733333333333331</v>
+        <v>0</v>
       </c>
       <c r="L20" s="11">
         <f t="shared" si="6"/>
-        <v>-6.28</v>
+        <v>0</v>
       </c>
       <c r="M20" s="12">
-        <f t="shared" si="6"/>
-        <v>-5.024</v>
+        <f>(M19-L19)/(M18-L18)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>150</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="e">
         <f>-$B21/C20</f>
-        <v>29.388714733542319</v>
-      </c>
-      <c r="D21">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D21" t="e">
         <f t="shared" ref="D21:M21" si="7">-$B21/D20</f>
-        <v>23.510971786833856</v>
-      </c>
-      <c r="E21">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E21" t="e">
         <f t="shared" si="7"/>
-        <v>17.633228840125394</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21">
         <f t="shared" si="7"/>
-        <v>11.755485893416928</v>
+        <v>14.31297709923664</v>
       </c>
       <c r="G21">
         <f t="shared" si="7"/>
-        <v>9.9734042553191493</v>
-      </c>
-      <c r="H21" t="e">
+        <v>10.1763907734057</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="7"/>
+        <v>9.2592592592592595</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="7"/>
+        <v>16.268980477223426</v>
+      </c>
+      <c r="J21" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21">
+      <c r="K21" t="e">
         <f t="shared" si="7"/>
-        <v>9.433962264150944</v>
-      </c>
-      <c r="J21">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L21" t="e">
         <f t="shared" si="7"/>
-        <v>11.942675159235668</v>
-      </c>
-      <c r="K21">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M21" t="e">
         <f t="shared" si="7"/>
-        <v>17.914012738853504</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="7"/>
-        <v>23.885350318471335</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="7"/>
-        <v>29.85668789808917</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -3541,48 +3818,48 @@
         <v>2</v>
       </c>
       <c r="C25" s="11">
-        <f>C24/C23</f>
-        <v>-10.208</v>
+        <f>(D24-C24)/(D23-C23)</f>
+        <v>3.9999999999999147E-2</v>
       </c>
       <c r="D25" s="11">
-        <f t="shared" ref="D25:M25" si="8">D24/D23</f>
-        <v>-12.77</v>
+        <f t="shared" ref="D25:L25" si="8">(E24-D24)/(E23-D23)</f>
+        <v>0</v>
       </c>
       <c r="E25" s="11">
         <f t="shared" si="8"/>
-        <v>-17.026666666666667</v>
+        <v>-10.559999999999995</v>
       </c>
       <c r="F25" s="11">
         <f t="shared" si="8"/>
-        <v>-20.260000000000002</v>
+        <v>-21.720000000000002</v>
       </c>
       <c r="G25" s="11">
         <f t="shared" si="8"/>
-        <v>-18.8</v>
-      </c>
-      <c r="H25" s="11" t="e">
+        <v>-18</v>
+      </c>
+      <c r="H25" s="11">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>-21.92</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" si="8"/>
-        <v>-21.12</v>
+        <v>-21.279999999999998</v>
       </c>
       <c r="J25" s="11">
         <f t="shared" si="8"/>
-        <v>-21.2</v>
+        <v>-7.8400000000000034</v>
       </c>
       <c r="K25" s="11">
         <f t="shared" si="8"/>
-        <v>-16.746666666666666</v>
+        <v>0</v>
       </c>
       <c r="L25" s="11">
         <f t="shared" si="8"/>
-        <v>-12.56</v>
+        <v>0</v>
       </c>
       <c r="M25" s="12">
-        <f t="shared" si="8"/>
-        <v>-10.048</v>
+        <f>(M24-L24)/(M23-L23)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
@@ -3591,47 +3868,47 @@
       </c>
       <c r="C26">
         <f>-$B26/C25</f>
-        <v>19.592476489028211</v>
-      </c>
-      <c r="D26">
+        <v>-5000.0000000001064</v>
+      </c>
+      <c r="D26" t="e">
         <f t="shared" ref="D26:M26" si="9">-$B26/D25</f>
-        <v>15.661707126076744</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E26">
         <f t="shared" si="9"/>
-        <v>11.746280344557556</v>
+        <v>18.939393939393948</v>
       </c>
       <c r="F26">
         <f t="shared" si="9"/>
-        <v>9.8716683119447186</v>
+        <v>9.2081031307550631</v>
       </c>
       <c r="G26">
         <f t="shared" si="9"/>
-        <v>10.638297872340425</v>
-      </c>
-      <c r="H26" t="e">
+        <v>11.111111111111111</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="9"/>
+        <v>9.1240875912408743</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="9"/>
+        <v>9.3984962406015047</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="9"/>
+        <v>25.510204081632644</v>
+      </c>
+      <c r="K26" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26">
+      <c r="L26" t="e">
         <f t="shared" si="9"/>
-        <v>9.4696969696969688</v>
-      </c>
-      <c r="J26">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M26" t="e">
         <f t="shared" si="9"/>
-        <v>9.433962264150944</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="9"/>
-        <v>11.942675159235669</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="9"/>
-        <v>15.923566878980891</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="9"/>
-        <v>19.904458598726116</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -3645,7 +3922,7 @@
   <dimension ref="B2:Q25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -3756,64 +4033,64 @@
         <v>2</v>
       </c>
       <c r="C5" s="11">
-        <f>C4/C3</f>
-        <v>1.7871428571428571</v>
+        <f t="shared" ref="C5:P5" si="0">(D4-C4)/(D3-C3)</f>
+        <v>0</v>
       </c>
       <c r="D5" s="11">
-        <f t="shared" ref="D5:Q5" si="0">D4/D3</f>
-        <v>2.085</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="0"/>
-        <v>2.5019999999999998</v>
+        <v>0.42999999999999972</v>
       </c>
       <c r="F5" s="11">
         <f t="shared" si="0"/>
-        <v>3.02</v>
+        <v>3.09</v>
       </c>
       <c r="G5" s="11">
         <f t="shared" si="0"/>
-        <v>2.9966666666666666</v>
+        <v>2.9800000000000004</v>
       </c>
       <c r="H5" s="11">
         <f t="shared" si="0"/>
-        <v>3.0049999999999999</v>
+        <v>2.9699999999999998</v>
       </c>
       <c r="I5" s="11">
         <f t="shared" si="0"/>
-        <v>3.04</v>
-      </c>
-      <c r="J5" s="11" t="e">
+        <v>2.99</v>
+      </c>
+      <c r="J5" s="11">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>3.11</v>
       </c>
       <c r="K5" s="11">
         <f t="shared" si="0"/>
-        <v>3.06</v>
+        <v>2.97</v>
       </c>
       <c r="L5" s="11">
         <f t="shared" si="0"/>
-        <v>3.0150000000000001</v>
+        <v>2.9699999999999998</v>
       </c>
       <c r="M5" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2.9600000000000009</v>
       </c>
       <c r="N5" s="11">
         <f t="shared" si="0"/>
-        <v>2.99</v>
+        <v>0.77999999999999936</v>
       </c>
       <c r="O5" s="11">
         <f t="shared" si="0"/>
-        <v>2.548</v>
+        <v>-9.9999999999997868E-3</v>
       </c>
       <c r="P5" s="11">
         <f t="shared" si="0"/>
-        <v>2.1216666666666666</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="12">
-        <f t="shared" si="0"/>
-        <v>1.8185714285714287</v>
+        <f>(Q4-P4)/(Q3-P3)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -3922,64 +4199,64 @@
         <v>2</v>
       </c>
       <c r="C10" s="11">
-        <f>C9/C8</f>
-        <v>1.7914285714285714</v>
+        <f>(D9-C9)/(D8-C8)</f>
+        <v>0</v>
       </c>
       <c r="D10" s="11">
-        <f t="shared" ref="D10:Q10" si="1">D9/D8</f>
-        <v>2.09</v>
+        <f t="shared" ref="D10:P10" si="1">(E9-D9)/(E8-D8)</f>
+        <v>0</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="1"/>
-        <v>2.508</v>
+        <v>0</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" si="1"/>
-        <v>3.1349999999999998</v>
+        <v>0</v>
       </c>
       <c r="G10" s="11">
         <f t="shared" si="1"/>
-        <v>4.18</v>
+        <v>0.58999999999999986</v>
       </c>
       <c r="H10" s="11">
         <f t="shared" si="1"/>
-        <v>5.9749999999999996</v>
+        <v>5.89</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" si="1"/>
-        <v>6.06</v>
-      </c>
-      <c r="J10" s="11" t="e">
+        <v>5.96</v>
+      </c>
+      <c r="J10" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>6.1899999999999995</v>
       </c>
       <c r="K10" s="11">
         <f t="shared" si="1"/>
-        <v>6.09</v>
+        <v>5.91</v>
       </c>
       <c r="L10" s="11">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0.75999999999999979</v>
       </c>
       <c r="M10" s="11">
         <f t="shared" si="1"/>
-        <v>4.253333333333333</v>
+        <v>-9.9999999999997868E-3</v>
       </c>
       <c r="N10" s="11">
         <f t="shared" si="1"/>
-        <v>3.1875</v>
+        <v>0</v>
       </c>
       <c r="O10" s="11">
         <f t="shared" si="1"/>
-        <v>2.5499999999999998</v>
+        <v>0</v>
       </c>
       <c r="P10" s="11">
         <f t="shared" si="1"/>
-        <v>2.125</v>
+        <v>-9.9999999999997868E-3</v>
       </c>
       <c r="Q10" s="12">
-        <f t="shared" si="1"/>
-        <v>1.82</v>
+        <f>(Q9-P9)/(Q8-P8)</f>
+        <v>-9.9999999999997868E-3</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -4076,56 +4353,56 @@
         <v>2</v>
       </c>
       <c r="C15" s="11">
-        <f>C14/C13</f>
-        <v>4.1866666666666665</v>
+        <f>(D14-C14)/(D13-C13)</f>
+        <v>0</v>
       </c>
       <c r="D15" s="11">
-        <f t="shared" ref="D15:N15" si="2">D14/D13</f>
-        <v>5.024</v>
+        <f t="shared" ref="D15:N15" si="2">(E14-D14)/(E13-D13)</f>
+        <v>0</v>
       </c>
       <c r="E15" s="11">
         <f t="shared" si="2"/>
-        <v>6.28</v>
+        <v>-1.9999999999999574E-2</v>
       </c>
       <c r="F15" s="11">
         <f t="shared" si="2"/>
-        <v>8.3800000000000008</v>
+        <v>2.9400000000000013</v>
       </c>
       <c r="G15" s="11">
         <f t="shared" si="2"/>
-        <v>11.1</v>
+        <v>10.979999999999999</v>
       </c>
       <c r="H15" s="11">
         <f t="shared" si="2"/>
-        <v>11.22</v>
-      </c>
-      <c r="I15" s="11" t="e">
+        <v>10.84</v>
+      </c>
+      <c r="I15" s="11">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>11.72</v>
       </c>
       <c r="J15" s="11">
         <f t="shared" si="2"/>
-        <v>11.34</v>
+        <v>10.8</v>
       </c>
       <c r="K15" s="11">
         <f t="shared" si="2"/>
-        <v>11.07</v>
+        <v>3.379999999999999</v>
       </c>
       <c r="L15" s="11">
         <f t="shared" si="2"/>
-        <v>8.5066666666666659</v>
+        <v>0</v>
       </c>
       <c r="M15" s="11">
         <f t="shared" si="2"/>
-        <v>6.38</v>
+        <v>0</v>
       </c>
       <c r="N15" s="11">
         <f t="shared" si="2"/>
-        <v>5.1040000000000001</v>
+        <v>0</v>
       </c>
       <c r="O15" s="12">
-        <f>O14/O13</f>
-        <v>4.253333333333333</v>
+        <f>(O14-N14)/(O13-N13)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -4210,48 +4487,48 @@
         <v>2</v>
       </c>
       <c r="C20" s="11">
-        <f>C19/C18</f>
-        <v>5.0280000000000005</v>
+        <f>(D19-C19)/(D18-C18)</f>
+        <v>0</v>
       </c>
       <c r="D20" s="11">
-        <f t="shared" ref="D20:M20" si="3">D19/D18</f>
-        <v>6.2850000000000001</v>
+        <f t="shared" ref="D20:L20" si="3">(E19-D19)/(E18-D18)</f>
+        <v>0</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="3"/>
-        <v>8.3800000000000008</v>
+        <v>0</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="3"/>
-        <v>12.57</v>
+        <v>8.879999999999999</v>
       </c>
       <c r="G20" s="11">
         <f t="shared" si="3"/>
-        <v>16.260000000000002</v>
-      </c>
-      <c r="H20" s="11" t="e">
+        <v>15.720000000000002</v>
+      </c>
+      <c r="H20" s="11">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>16.86</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" si="3"/>
-        <v>16.32</v>
+        <v>9.2199999999999989</v>
       </c>
       <c r="J20" s="11">
         <f t="shared" si="3"/>
-        <v>12.77</v>
+        <v>0</v>
       </c>
       <c r="K20" s="11">
         <f t="shared" si="3"/>
-        <v>8.5133333333333336</v>
+        <v>0</v>
       </c>
       <c r="L20" s="11">
         <f t="shared" si="3"/>
-        <v>6.3849999999999998</v>
+        <v>0</v>
       </c>
       <c r="M20" s="12">
-        <f t="shared" si="3"/>
-        <v>5.1079999999999997</v>
+        <f>(M19-L19)/(M18-L18)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -4336,48 +4613,48 @@
         <v>2</v>
       </c>
       <c r="C25" s="11">
-        <f>C24/C23</f>
-        <v>10.056000000000001</v>
+        <f>(D24-C24)/(D23-C23)</f>
+        <v>0</v>
       </c>
       <c r="D25" s="11">
-        <f t="shared" ref="D25:M25" si="4">D24/D23</f>
-        <v>12.57</v>
+        <f t="shared" ref="D25:L25" si="4">(E24-D24)/(E23-D23)</f>
+        <v>0</v>
       </c>
       <c r="E25" s="11">
         <f t="shared" si="4"/>
-        <v>16.760000000000002</v>
+        <v>8.1200000000000045</v>
       </c>
       <c r="F25" s="11">
         <f t="shared" si="4"/>
-        <v>21.08</v>
+        <v>20.279999999999998</v>
       </c>
       <c r="G25" s="11">
         <f t="shared" si="4"/>
-        <v>21.88</v>
-      </c>
-      <c r="H25" s="11" t="e">
+        <v>20.439999999999998</v>
+      </c>
+      <c r="H25" s="11">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>23.84</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" si="4"/>
-        <v>22.4</v>
+        <v>20.079999999999998</v>
       </c>
       <c r="J25" s="11">
         <f t="shared" si="4"/>
-        <v>21.24</v>
+        <v>8.6000000000000014</v>
       </c>
       <c r="K25" s="11">
         <f t="shared" si="4"/>
-        <v>17.026666666666667</v>
+        <v>-3.9999999999999147E-2</v>
       </c>
       <c r="L25" s="11">
         <f t="shared" si="4"/>
-        <v>12.76</v>
+        <v>0</v>
       </c>
       <c r="M25" s="12">
-        <f t="shared" si="4"/>
-        <v>10.208</v>
+        <f>(M24-L24)/(M23-L23)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4388,10 +4665,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I30"/>
+  <dimension ref="B1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26:N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -4399,7 +4676,7 @@
     <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.3">
       <c r="H1" t="s">
         <v>0</v>
       </c>
@@ -4407,8 +4684,8 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4424,8 +4701,12 @@
       <c r="F3" s="3">
         <v>100000</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G3" s="13">
+        <f>10^5.25</f>
+        <v>177827.94100389251</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -4441,8 +4722,9 @@
       <c r="F4" s="6">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
@@ -4462,14 +4744,17 @@
         <f t="shared" si="0"/>
         <v>1.28</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C6">
         <f>20*LOG10(C5)</f>
         <v>7.6042248342321201</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:F6" si="1">20*LOG10(D5)</f>
+        <f t="shared" ref="D6:G6" si="1">20*LOG10(D5)</f>
         <v>7.6042248342321201</v>
       </c>
       <c r="E6">
@@ -4480,9 +4765,22 @@
         <f t="shared" si="1"/>
         <v>2.1441993929573675</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G6" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G8" s="13"/>
+      <c r="X8">
+        <f>20*LOG10(4)</f>
+        <v>12.041199826559248</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -4498,8 +4796,12 @@
       <c r="F9" s="3">
         <v>100000</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G9" s="13">
+        <f>10^5.26</f>
+        <v>181970.08586099857</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>1</v>
       </c>
@@ -4515,8 +4817,9 @@
       <c r="F10" s="6">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="7" t="s">
         <v>2</v>
       </c>
@@ -4536,8 +4839,11 @@
         <f t="shared" si="2"/>
         <v>1.44</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C12">
         <f>20*LOG10(C11)</f>
         <v>14.185399219516615</v>
@@ -4551,12 +4857,21 @@
         <v>13.02556027996288</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12" si="5">20*LOG10(F11)</f>
+        <f t="shared" ref="F12:G12" si="5">20*LOG10(F11)</f>
         <v>3.1672498419049928</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G12" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
@@ -4572,8 +4887,12 @@
       <c r="F15" s="3">
         <v>100000</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G15" s="13">
+        <f>10^5.27</f>
+        <v>186208.71366628664</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>1</v>
       </c>
@@ -4589,8 +4908,9 @@
       <c r="F16" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="7" t="s">
         <v>2</v>
       </c>
@@ -4610,8 +4930,11 @@
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C18">
         <f>20*LOG10(C17)</f>
         <v>19.275756546911104</v>
@@ -4625,12 +4948,21 @@
         <v>16.650178254124725</v>
       </c>
       <c r="F18">
-        <f t="shared" ref="F18" si="9">20*LOG10(F17)</f>
+        <f t="shared" ref="F18:G18" si="9">20*LOG10(F17)</f>
         <v>6.0205999132796242</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>3</v>
       </c>
@@ -4646,8 +4978,12 @@
       <c r="F21" s="3">
         <v>100000</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="13">
+        <f>10^5.28</f>
+        <v>190546.07179632492</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>1</v>
       </c>
@@ -4663,8 +4999,9 @@
       <c r="F22" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="7" t="s">
         <v>2</v>
       </c>
@@ -4684,8 +5021,11 @@
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C24">
         <f>20*LOG10(C23)</f>
         <v>22.144199392957368</v>
@@ -4699,12 +5039,70 @@
         <v>17.616271845615827</v>
       </c>
       <c r="F24">
-        <f t="shared" ref="F24" si="13">20*LOG10(F23)</f>
+        <f t="shared" ref="F24:G24" si="13">20*LOG10(F23)</f>
         <v>6.0205999132796242</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="13">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="2">
+        <v>100</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M24" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N24" s="3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G25" s="13"/>
+      <c r="J25" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K25" s="8">
+        <v>7.25</v>
+      </c>
+      <c r="L25" s="8">
+        <v>7.25</v>
+      </c>
+      <c r="M25" s="8">
+        <v>7.25</v>
+      </c>
+      <c r="N25" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G26" s="13"/>
+      <c r="J26" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26">
+        <f>20*LOG10(K25)</f>
+        <v>17.206760131419873</v>
+      </c>
+      <c r="L26">
+        <f t="shared" ref="L26:N26" si="14">20*LOG10(L25)</f>
+        <v>17.206760131419873</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="14"/>
+        <v>17.206760131419873</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="14"/>
+        <v>6.0205999132796242</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>3</v>
       </c>
@@ -4720,8 +5118,12 @@
       <c r="F27" s="3">
         <v>100000</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G27" s="13">
+        <f>10^5.29</f>
+        <v>194984.45997580473</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>1</v>
       </c>
@@ -4738,7 +5140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="7" t="s">
         <v>2</v>
       </c>
@@ -4747,34 +5149,41 @@
         <v>17.600000000000001</v>
       </c>
       <c r="D29" s="8">
-        <f t="shared" ref="D29:F29" si="14">D28/$I$1</f>
+        <f t="shared" ref="D29:F29" si="15">D28/$I$1</f>
         <v>17.2</v>
       </c>
       <c r="E29" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="F29" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C30">
         <f>20*LOG10(C29)</f>
         <v>24.910253356283</v>
       </c>
       <c r="D30">
-        <f t="shared" ref="D30" si="15">20*LOG10(D29)</f>
+        <f t="shared" ref="D30" si="16">20*LOG10(D29)</f>
         <v>24.710568938150978</v>
       </c>
       <c r="E30">
-        <f t="shared" ref="E30" si="16">20*LOG10(E29)</f>
+        <f t="shared" ref="E30" si="17">20*LOG10(E29)</f>
         <v>18.061799739838872</v>
       </c>
       <c r="F30">
-        <f t="shared" ref="F30" si="17">20*LOG10(F29)</f>
+        <f t="shared" ref="F30:G30" si="18">20*LOG10(F29)</f>
         <v>6.0205999132796242</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ЭЛЕКТРОНИКА/labs/lab3/Report_Electro3.xlsx
+++ b/ЭЛЕКТРОНИКА/labs/lab3/Report_Electro3.xlsx
@@ -823,11 +823,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="191870080"/>
-        <c:axId val="191872000"/>
+        <c:axId val="270312960"/>
+        <c:axId val="270314880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="191870080"/>
+        <c:axId val="270312960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -880,13 +880,13 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="191872000"/>
+        <c:crossAx val="270314880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191872000"/>
+        <c:axId val="270314880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -939,7 +939,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="191870080"/>
+        <c:crossAx val="270312960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3"/>
@@ -1585,11 +1585,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="266390528"/>
-        <c:axId val="266392704"/>
+        <c:axId val="270654848"/>
+        <c:axId val="270657024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="266390528"/>
+        <c:axId val="270654848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1643,13 +1643,13 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="266392704"/>
+        <c:crossAx val="270657024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="266392704"/>
+        <c:axId val="270657024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1702,7 +1702,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="266390528"/>
+        <c:crossAx val="270654848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3"/>
@@ -2134,6 +2134,70 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>по варианту</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:noFill/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист11!$K$24:$N$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист11!$K$26:$N$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>17.206760131419873</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.206760131419873</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.206760131419873</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0205999132796242</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2142,11 +2206,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="266560640"/>
-        <c:axId val="266562560"/>
+        <c:axId val="271083008"/>
+        <c:axId val="271084928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="266560640"/>
+        <c:axId val="271083008"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2195,12 +2259,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="266562560"/>
+        <c:crossAx val="271084928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="266562560"/>
+        <c:axId val="271084928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-5"/>
@@ -2247,7 +2311,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="266560640"/>
+        <c:crossAx val="271083008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2260,8 +2324,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.80083462041857278"/>
           <c:y val="2.0531133223497967E-2"/>
-          <c:w val="0.18206222618752024"/>
-          <c:h val="0.91007805965988287"/>
+          <c:w val="0.19916534605430655"/>
+          <c:h val="0.86336692696797057"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2353,11 +2417,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="222650752"/>
-        <c:axId val="222648960"/>
+        <c:axId val="270861440"/>
+        <c:axId val="270862976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="222650752"/>
+        <c:axId val="270861440"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2370,12 +2434,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222648960"/>
+        <c:crossAx val="270862976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="222648960"/>
+        <c:axId val="270862976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2386,7 +2450,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222650752"/>
+        <c:crossAx val="270861440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4668,7 +4732,7 @@
   <dimension ref="B1:X30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26:N26"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
